--- a/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/Phase 2/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554AAE40-BD82-4F77-955E-544FCB05CE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B1896-1D23-6F49-A5FE-E925F8315287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1230" windowWidth="23850" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="1240" windowWidth="23860" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,12 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,18 +422,18 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,53 +447,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/Phase 2/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B1896-1D23-6F49-A5FE-E925F8315287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF3B98-8805-664B-BDEE-9DA9C9483679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1240" windowWidth="23860" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,34 +39,34 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Encontrar/descrever use cases relacionados (Francisco)</t>
-  </si>
-  <si>
-    <t>Encontrar/descrever use cases relacionados (Iago)</t>
-  </si>
-  <si>
-    <t>Encontrar/descrever use cases relacionados (James)</t>
-  </si>
-  <si>
-    <t>Encontrar/descrever use cases relacionados (Joao)</t>
-  </si>
-  <si>
-    <t>Encontrar/descrever use cases relacionados (Ricardo)</t>
-  </si>
-  <si>
-    <t>Desenvolver um sub-diagrama (Francisco)</t>
-  </si>
-  <si>
-    <t>Desenvolver um sub-diagrama (Iago)</t>
-  </si>
-  <si>
-    <t>Desenvolver um sub-diagrama (James)</t>
-  </si>
-  <si>
-    <t>Desenvolver um sub-diagrama (Joao)</t>
-  </si>
-  <si>
-    <t>Desenvolver um sub-diagrama (Ricardo)</t>
+    <t>Develop an use case sub-diagram  (Francisco)</t>
+  </si>
+  <si>
+    <t>Develop an use case sub-diagram  (Iago)</t>
+  </si>
+  <si>
+    <t>Develop an use case sub-diagram  (James)</t>
+  </si>
+  <si>
+    <t>Develop an use case sub-diagram  (Ricardo)</t>
+  </si>
+  <si>
+    <t>Develop an use case sub-diagram  (Joao)</t>
+  </si>
+  <si>
+    <t>Find/discribe related use cases  (Francisco)</t>
+  </si>
+  <si>
+    <t>Find/discribe related use cases  (Iago)</t>
+  </si>
+  <si>
+    <t>Find/discribe related use cases  (James)</t>
+  </si>
+  <si>
+    <t>Find/discribe related use cases  (Joaoa)</t>
+  </si>
+  <si>
+    <t>Find/discribe related use cases  (Ricardo)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -452,7 +452,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -460,7 +460,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -468,7 +468,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -476,7 +476,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -492,7 +492,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -500,7 +500,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -508,7 +508,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -516,7 +516,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -524,7 +524,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhertz/Documents/subjects/SE/ganttproject/Project/Phase 2/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF3B98-8805-664B-BDEE-9DA9C9483679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F657E584-A718-554F-9B77-58FB1C8DC92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
